--- a/非遗项目汇总.xlsx
+++ b/非遗项目汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Python\Feiyi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Python\DICH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AE0E9-20B8-443B-8D52-B41282CAC6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F3264-DF51-4A5A-8EF9-6164BC03557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鄂伦春非遗项目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>项目名称</t>
   </si>
@@ -45,9 +45,6 @@
 中国北方民族独特的桦树皮文化，从地域上说主要以大小兴安岭为主，这里有茂密的白桦林，原材料极为丰富，鄂伦春人在长期的狩猎生活中，充分发挥了自己的聪明才智，用桦树皮做成各种器具，用于生产和生活之中，丰富了狩猎文化的内涵，形成了独树一帜的民族传统工艺，成为世界独一无二的民族文化，这无论是在我国还是在世界上都有独特历史地位，具有重要的历史价值、科学价值和艺术价值。</t>
   </si>
   <si>
-    <t>**《树皮上的千年印记：桦树皮制作技艺》**</t>
-  </si>
-  <si>
     <t>鄂伦春族狍皮制作技艺</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>鄂伦春族狍皮制作技艺2008年被评为国家级非遗项目，兽皮文化是一个民族在特定的历史条件下而产生的独特文化，在人类社会发展的最初阶段，原始的狩猎生产生活，决定了他们以兽肉为食、兽皮为衣的生活方式，兽皮生活用品主要有：狍皮被、狍皮大衣、狍皮手套、狍角帽、套裤、靴子等。制作工具主要有熟皮子使用的木扎刀，“乌”“毛丹”“贺得勒”等，这是狩猎民族充分利用自身创造的兽皮文化战胜寒冷、保护自己适应环境生存的伟大创举。兽皮文化不仅是中华民族的宝贵财富，也是世界文化的瑰宝。</t>
   </si>
   <si>
-    <t>**标题：狍皮为衣，记忆为火——鄂伦春族狍皮制作技艺**</t>
-  </si>
-  <si>
     <t>鄂伦春族篝火节</t>
   </si>
   <si>
@@ -67,6 +61,9 @@
   </si>
   <si>
     <t>2009年被评自治区级非遗项目，鄂伦春人非常敬仰和信奉火，视火如神。因为火对处于狩猎生产的人们而言，显得极其重要，尤其是对处于生活于北方寒冷地带的鄂伦春人，火是他们生存发展的一个重要前提。火不但是熟食、取暖的保障，也是抵御野兽的一种武器。每到喜庆佳节夜幕降临之际，鄂伦春人都要燃起篝火，进行祭拜火神活动。用手向上、向下弹酒表示敬天、敬地、敬火神，再往火中扔两块肉等，围着熊熊烈焰的篝火唱歌跳舞，进行传统体育比赛等活动，这样的祭祀活动逐渐演变成节日而延续下来。根据鄂伦春人的这个传统习俗，1991年旗委、旗政府确定每年公历的6月18日为篝火节。每到这一天，各族兄弟同胞、社会各界知名人士以及来自各个乡镇、村屯的鄂伦春人会身着艳丽的民族服饰欣然前往篝火节场地，参与各项民俗活动。</t>
+  </si>
+  <si>
+    <t>鄂伦春族斜仁柱搭建技艺</t>
   </si>
   <si>
     <t>2009年被评自治区级非遗项目，鄂伦春民族游猎生活时期住的房子叫“斜仁柱”（圆锥形的原始住所），“柱”在鄂伦春族语中是“房”的意思。
@@ -74,9 +71,6 @@
 “斜仁柱”的建造方法是，首先用二三根粗、结实、带两杈的支杆，把它斜立起来，搭成人字形，起到支撑、固定的作用。然后用20根左右的木杆依次交叉搭在人字架上，“斜仁柱”的骨架便搭起来了。骨架搭好后，接下来便是制作覆盖物了，覆盖物有皮制、桦树皮、草或苇帘子3类。</t>
   </si>
   <si>
-    <t>**标题：斜仁柱：森林中的移动家园**</t>
-  </si>
-  <si>
     <t>鄂伦春族剪纸</t>
   </si>
   <si>
@@ -86,36 +80,24 @@
     <t>鄂伦春族剪纸2013年被评自治区级非遗项目，鄂伦春族剪纸艺术，作为中国东北地区鄂伦春族人中流传的艺术形式和鄂伦春民族传统文化艺术的重要组成部分，创造了独特的民族文化。世居大山的鄂伦春人，剪纸艺术的产生，不仅可以用来装点生活，更成了鄂伦春人表现内心世界和精神寄托。内容多以大自然花草树木、动物形象及劳动工具为主，触景生情，在剪纸人心中形成图案，直接剪裁而成。</t>
   </si>
   <si>
-    <t>**《剪出山林的呼吸》**</t>
-  </si>
-  <si>
     <t>鄂伦春族舞蹈（黑熊搏斗舞）</t>
   </si>
   <si>
     <t>鄂伦春族舞蹈（黑熊搏斗舞）2013年被评自治区级非遗项目，鄂伦春斗熊舞是古老的游猎民族创造的一种独特文化， 这种文化受生态环境和生产生活方式的影响，具有浓郁的游猎民族文化特色，黑熊搏斗舞也叫斗熊舞就是对熊图腾的崇拜。黑熊搏斗舞，是仿照黑熊在搏斗时的一种动作的舞蹈。可由三个人跳，不分性别、年龄和社会地位。开始时两人上身略向前倾斜，两膝略向前屈， 两手放在膝盖上，两足跳跃不息，同时两肩和头部左右摇摆，嘴里发出“ 吼、吼” 的粗犷声音。第三个人也以同样的动作参加进去，其表演似劝解两个正在吵架的舞人。有的地区用喉音“ 哼母、哼母” 作伴舞，气氛相当严肃紧张，动作勇健有力。</t>
   </si>
   <si>
-    <t>**《熊影之下》**</t>
-  </si>
-  <si>
     <t>鄂伦春族狍角帽制作技艺</t>
   </si>
   <si>
     <t>鄂伦春狍角帽制作技艺2017年被评自治区级非遗项目，鄂伦春语叫“灭塔哈”。几乎所有的鄂伦春人在冬季的时候，都戴这种狍子头皮制作的帽子。《黑龙江志稿》中记载“双耳捉然，如人生角”。在大兴安岭地区，冬季一般长达八个月。最低气温常常低至零下四十摄氏度，积雪覆盖有一百余天。冬季制作帽子的材料一般有狍子皮、猞猁皮、水獭皮等，其中以狍子头皮使用最多，也最具典型。</t>
   </si>
   <si>
-    <t>**标题：灭塔哈——狍角帽里的鄂伦春智慧**</t>
-  </si>
-  <si>
     <t>鄂伦春族猎刀制作技艺</t>
   </si>
   <si>
     <t>鄂伦春猎刀锻制技艺2022年被评自治区级非遗项目，鄂伦春族猎刀锻制技艺是原始古老的一种文化，具有一定的发明创造性，是北方游猎民族聪明智慧的杰作，在我国历史上古代北方民族如东胡、匈奴、鲜卑、契丹、女真等民族都经历了原始的狩猎生活，创造了古老的狩猎文化，今天的鄂伦春民族继承发展了这种文化，鄂伦春族猎刀制作技艺不仅是中华民族的宝贵财富，也是世界文化的瑰宝，它体现了人类早期的原始文化，有着重要的历史价值，科学价值和艺术价值。</t>
   </si>
   <si>
-    <t>**标题：刀锋上的千年猎歌——鄂伦春族猎刀制作技艺**</t>
-  </si>
-  <si>
     <t>蒙古刀制作技艺</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
   </si>
   <si>
     <t>蒙古刀的雏形可追溯至匈奴、东胡等早期游牧民族的青铜短刀，其发展与草原骑兵战术的演进紧密相关。蒙元时期，随着冶铁技术的突破，蒙古刀逐渐定型为“弯刃、单刃、宽脊”的典型形制，成为骑兵近身作战的利器。明清以降，蒙古刀吸收中原锻刀技艺与藏传佛教装饰元素，刀鞘纹饰愈发繁复，礼仪功能显著增强，成为贵族身份的象征 。例如，清代蒙古王公的佩刀常以银鞘镶嵌珊瑚、松石，刀柄裹鲛鱼皮，工艺之精湛令人惊叹。蒙古刀的制作工艺融合了锻造、雕刻、镶嵌等多种技艺，每一道工序都凝聚着匠人的心血。刀身通常采用优质钢材，如百炼折花钢（经七百多次折叠锻打）、不锈钢等，经淬火、精磨等数十道工序制成，刃口锋利且韧性十足。刀柄与刀鞘材质多样，包括牛角、红木、银、铜等，表面常雕刻龙、虎、云纹等传统图案，或镶嵌珊瑚、松石等宝石，部分鞘体还采用驼骨彩绘工艺，堪称艺术珍品 。</t>
-  </si>
-  <si>
-    <t>**《刀心》**</t>
   </si>
   <si>
     <t>马头琴制作技艺</t>
@@ -133,9 +112,6 @@
   <si>
     <t>马头琴是从唐宋时期拉弦乐器发展演变而来，演奏的乐曲具有深沉粗犷激昂的特点。走进苍狼民族乐器厂，内蒙古自治区非物质文化遗产项目——蒙古族乐器制作技艺（马头琴制作技艺）代表性传承人胡努斯图正忙制琴。一张颇有年代的操作台上，摆满了木料和未完工的琴箱、琴杆以及各种刻刀、凿子，地上到处堆满了刨花。在这里，胡努斯图制作出一把把精美的马头琴。
 “马头琴制作要经过几十道工序，工艺要求也很精细。娴熟的制作工艺，精细的雕刻技术，展示着游牧民族传统文化，对蒙古族有着重要的传承意义。”胡努斯图说。</t>
-  </si>
-  <si>
-    <t>**《琴骨》**</t>
   </si>
   <si>
     <t>嘎仙洞传说</t>
@@ -155,16 +131,10 @@
 如今，嘎仙洞已被列为国家一级保护文物，成为 拓跋鲜卑历史文化园景区的核心景点。这里不仅记录着英雄与恶魔的故事，也见证了鲜卑人南迁建立北魏王朝的历史业绩，成为鄂伦春自治旗文化旅游融合发展的重要文化资源。</t>
   </si>
   <si>
-    <t>**《洞中回响》**</t>
-  </si>
-  <si>
     <t>植物扎染技艺</t>
   </si>
   <si>
     <t>牙克石市植物扎染传统制作技艺传承人于艳芳利用蒲公英、金莲花、蓝莓、艾蒿等天然草本植物对织物进行染色，使植物与布料产生神奇“化学反应”，将自然界的色彩和香气巧妙地融入扎染作品之中。随着扎染艺术融合地域特色、产品设计和文化创意的不断发展，牙克石市文体旅游广电局也在不断推进对本地传统技艺的调查研究，系统梳理植物扎染的历史渊源、技艺特点和文化内涵。牙克石市植物扎染技艺入选第八批自治区级非物质文化遗产代表性项目，不仅是对传承人及相关保护单位工作的认可和肯定，更为牙克石市深入挖掘北疆文化内涵、打造具有鲜明地域特色的文旅产品、推动文化旅游深度融合及地方经济高质量发展注入一剂“强心针”。</t>
-  </si>
-  <si>
-    <t>**《草色入布》**</t>
   </si>
   <si>
     <t>鄂温克驯鹿习俗</t>
@@ -173,12 +143,6 @@
     <t>2008国家级非物质文化遗产代表性项目，目前定居于内蒙古自治区根河市敖鲁古雅民族乡的敖鲁古雅鄂温克狩猎民族，历史上以狩猎和饲养驯鹿为生，他们常年居住在大山的密林深处，被称为“中国最后的狩猎部落”。
 　　鄂温克人拥有中国唯一的驯鹿种群，是驯鹿唯一的饲养者，史称“使鹿部”。在三百多年的历史中，敖鲁古雅鄂温克狩猎民族逐步形成了自己独特的驯鹿文化，其中包括鹿的驯养繁育技艺、鹿的脱膏和鹿奶的制作使用、制酒技艺及鹿鞍具的制作技艺、鹿产品加工、民族手工艺品制作等内容。在长期发展过程中，敖鲁古雅鄂温克狩猎民族逐渐走出单一的狩猎饲养模式，学会对鹿产品和其他野生资源进行合理的开发利用，使之更好地为民族的发展进步服务。
 　　鄂温克驯鹿习俗集生产知识和生活知识于一体，在传统的衣食住行、医药、工艺制作等各种技能中蕴含着独特的信仰观、审美观、价值观、生态观，具有独特的历史文化研究价值。</t>
-  </si>
-  <si>
-    <t>**《林海鹿影：敖鲁古雅的驯鹿记忆》**</t>
-  </si>
-  <si>
-    <t>**标题：剪出山林的呼吸——鄂伦春族剪纸**</t>
   </si>
   <si>
     <t>冰雪那达慕</t>
@@ -192,9 +156,6 @@
 　　发掘、抢救和保护那达慕，对中国体育史，乃至世界体育史的丰富和完善都有重要价值。</t>
   </si>
   <si>
-    <t>**冰雪那达慕：寒原上的千年盛会**</t>
-  </si>
-  <si>
     <t>鄂温克抢枢</t>
   </si>
   <si>
@@ -203,18 +164,12 @@
 　　随着鄂温克族逐步迁向城市，鄂温克族的年轻人知道自己民族历史的人也越来越少，鄂温克抢枢的文化内涵正在现代化的大背景下逐渐淡化，对它的抢救保护已迫在眉睫。</t>
   </si>
   <si>
-    <t>**《抢枢》**</t>
-  </si>
-  <si>
     <t>蒙古族马具制作制作技艺</t>
   </si>
   <si>
     <t>蒙古族被誉为“马背上的民族”，在长期的生产生活中积累了丰富的马具制作经验，出现了众多的马具制作匠师，精湛实用的马具制作工艺已成为草原文化的重要组成部分。马具制作融木工、刺绣、皮毛、金属等工艺于一体，在蒙古族传统手工艺中占有重要的地位。马鞍用柳木、榆木等打造而成，笼头、马鞍、马鞭、绳索等的制造采用皮革工艺，马镫、马环、马钉、马箍等则以金属工艺制成。部分马具还要镶嵌玉、石、骨、贝壳等，褡裢（放在马鞍上的口袋）要绣上吉祥图案。科尔沁左翼后旗地处内蒙古自治区东南部，这里的马鞍、马镫、缰绳、褡裢、马笼头等马具以独特的制作工艺和风格为世所重。
 　　马具是草原游牧文化的标志，凝聚着手工艺人的聪明才智，它的产生在北方草原文明的发展进程中具有重要意义。马具制作综合多种工艺，集中体现了蒙古族的审美意识及其民族文化特征，具有重要的文化研究价值。马具的加工制作方法中蕴含着一定的科技因素和文化信息，很难用现代技术取代，有其特殊的工艺价值。
 　　长期以来，马具制作一直是科尔沁左翼后旗的重要产业之一。目前科左后旗的马具制作匠人已散布到旗内各地，老艺人年事已高，年轻的传承人又寥寥无几，马具制作技术已濒临失传，急需有效保护。</t>
-  </si>
-  <si>
-    <t>**标题：鞍上春秋——蒙古族马具制作技艺**</t>
   </si>
   <si>
     <t>蒙古族长调民歌</t>
@@ -227,9 +182,6 @@
 　　根据蒙古族音乐文化的历史渊源和音乐形态的现状，长调可界定为由北方草原游牧民族在畜牧业生产劳动中创造的，在野外放牧和传统节庆时演唱的一种民歌。长调旋律悠长舒缓、意境开阔、声多词少、气息绵长，旋律极富装饰性（如前倚音、后倚音、滑音、回音等），尤以“诺古拉”（蒙古语音译，波折音或装饰音）演唱方式所形成的华彩唱法最具特色。
 　　早在一千多年前，蒙古族的祖先走出额尔古纳河两岸山林地带向蒙古高原迁徙，生产方式也随之从狩猎业转变为畜牧业，长调这一新的民歌形式便产生、发展了起来。在相当长的历史时期内，它逐渐取代结构方整的狩猎歌曲，占据了蒙古民歌的主导地位，最终形成了蒙古族音乐的典型风格，并对蒙古族音乐的其他形式均产生了深刻的影响。可以说，长调集中体现了蒙古游牧文化的特色与特征，并与蒙古民族的语言、文学、历史、宗教、心理、世界观、生态观、人生观、风俗习惯等紧密联系在一起，贯穿于蒙古民族的全部历史和社会生活中。长调的基本题材包括牧歌、思乡曲、赞歌、婚礼歌和宴歌（也称酒歌）等。
 　　长调民歌所包含的题材与蒙古族社会生活紧密相联，它是蒙古族全部节日庆典、婚礼宴会、亲朋相聚、“那达慕”等活动中必唱的歌曲，全面反映了蒙古族人民的心灵历史和文化品位。代表曲目有《走马》、《小黄马》、《辽阔的草原》、《辽阔富饶的阿拉善》等。长调民歌的研究涉及到音乐学的诸多分支学科，对它的研究与保护实际上就是对历史悠久的草原文明与草原文化类型最强有力的传承与保护。</t>
-  </si>
-  <si>
-    <t>**《长调：风中的诺古拉》**</t>
   </si>
   <si>
     <t>蒙古族马头琴音乐</t>
@@ -242,9 +194,6 @@
 　　马头琴在蒙古族文化中极受尊崇，已成为蒙古族文化极为重要的表现形式。近几十年来，马头琴的发展遇到了严重的困难。历史上马头琴有四大传统演奏流派，每一种演奏流派都有自己传统的演奏曲目。但时至今日，马头琴传承人日渐稀少，曲目失传现象严重，保护工作已刻不容缓。</t>
   </si>
   <si>
-    <t>**《琴声如马》**</t>
-  </si>
-  <si>
     <t>鄂伦春族赞达仁</t>
   </si>
   <si>
@@ -253,14 +202,7 @@
 鄂伦春族赞达仁随着这个民族放下猎枪走出森林和经济的发展社会的进步越来越难以传承发展，但它在人类历史上的影响是深远的。通过民族我们可以了解早期游猎民族的生产经济、生活方式和生活面貌。鄂伦春族民歌的基本内容</t>
   </si>
   <si>
-    <t>**《林海回声：赞达仁》**</t>
-  </si>
-  <si>
-    <t>鄂伦春族斜仁柱搭建技艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**微电影脚本：《火种》**</t>
+    <t>场景数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -356,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -670,10 +615,11 @@
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="105.875" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,11 +629,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="174.75" customHeight="1">
+    <row r="2" spans="1:5" ht="174.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,275 +646,235 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="117" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="117" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="162.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="162.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="153.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="153.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="96.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="96.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="137.25" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="89.25" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="137.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="89.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="81.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="147" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="81.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="163.5" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="195" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="147" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="126" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="163.5" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="195" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="126" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="154.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="96.75" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="96.75" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="153" customHeight="1">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="153" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="168" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="178.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="148.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="167.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="144.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
